--- a/Main/test/results/positionscatPOS.xlsx
+++ b/Main/test/results/positionscatPOS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,102 +539,104 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1719175.8805710187</t>
+          <t>1719175.88</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>49.91264785567589</t>
+          <t>49.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.1875535360907</t>
+          <t>81.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>102.08546016085893</t>
+          <t>102.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>26.451690181275882</t>
+          <t>26.45</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>3.02613242574646</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>47.78643621413599</t>
+          <t>47.79</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>49.40494740493716</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>72.29663591659614</t>
+          <t>72.3</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>19.75823819711977</t>
+          <t>19.76</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>20.735194628596314</t>
+          <t>20.74</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>22.207018172647995</t>
+          <t>22.21</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>54.56756418472516</t>
+          <t>54.57</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>19.214319529969153</t>
+          <t>19.21</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>19.149554350369872</t>
+          <t>19.15</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>25.318473825314086</t>
+          <t>25.32</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>13.364617908698486</t>
+          <t>13.36</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>55.92934665330793</t>
+          <t>55.93</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>29.49202008332657</t>
+          <t>29.49</t>
         </is>
       </c>
     </row>
@@ -642,102 +644,104 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>2</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>31.77140831913147</t>
+          <t>31.77</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>43.47334314401258</t>
+          <t>43.47</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.490082359420889</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.915960213804333</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.3278524577116855</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2.539912385451225</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.6067785956748177</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>42.39994266162789</t>
+          <t>42.4</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1.4548490343459204</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>10.997895400511977</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>16.102765989499634</t>
+          <t>16.1</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2.69143749655659</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2.5203644987190397</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>20.417150650475133</t>
+          <t>20.42</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1.2206112142673198</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>2.0512058479298276</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>1.1435046665443787</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>1.364626139353089</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.09651373473837492</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -745,102 +749,104 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>3</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>44.31723872276326</t>
+          <t>44.32</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>744136.8288041997</t>
+          <t>744136.83</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.451250925171809</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>38.17513040286185</t>
+          <t>38.18</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.2976577416632353</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2.494207684536373</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>26.504340569157197</t>
+          <t>26.5</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3.709050448297415</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1.6460040750994636</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.7253182993957689</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1.1516375271854211</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2.7062294293459486</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2.4341218767488217</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>29.31101297321182</t>
+          <t>29.31</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1.224198012369004</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>2.071744044478256</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>1.3179902220884452</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>28.13684581261624</t>
+          <t>28.14</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.19302824526617526</t>
+          <t>0.19</t>
         </is>
       </c>
     </row>
@@ -848,102 +854,104 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>4</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.874542790712845</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.705189935422082</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.549392125088362</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>59.67013264752694</t>
+          <t>59.67</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.359904296883012</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>42.40002504586238</t>
+          <t>42.4</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.5442212561765785</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>3.677910287719847</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>16.177824565138383</t>
+          <t>16.18</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.8391423441182011</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1.194661371853752</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2.69143749655659</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>16.665087598252445</t>
+          <t>16.67</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>29.33953721275216</t>
+          <t>29.34</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1.2596878714816244</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>33.97437739854074</t>
+          <t>33.97</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>1.1372296323375588</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>30.879183032011888</t>
+          <t>30.88</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0.048256818883109634</t>
+          <t>0.05</t>
         </is>
       </c>
     </row>
@@ -951,102 +959,104 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>5</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>35.28214603253502</t>
+          <t>35.28</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.056585966955897</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.5950210003728555</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>37.336888610131155</t>
+          <t>37.34</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.307919813813497</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2.489201683945394</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.2562266863574003</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>3.513630371197965</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>17.362566918006497</t>
+          <t>17.36</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>16.096264472538905</t>
+          <t>16.1</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>16.04667292020145</t>
+          <t>16.05</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2.6537754677010295</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2.3989143019690062</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>29.28268632368066</t>
+          <t>29.28</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1.1793218725926509</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>35.553409735498285</t>
+          <t>35.55</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>5.991356102168868</t>
+          <t>5.99</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>1.3888266328362766</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>0.05689397824924869</t>
+          <t>0.06</t>
         </is>
       </c>
     </row>
@@ -1054,102 +1064,104 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>6</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>44.3108888645713</t>
+          <t>44.31</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.9915021708060583</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.465108107979977</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>44.83642740116304</t>
+          <t>44.84</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>26.548203819042104</t>
+          <t>26.55</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2.3656134566048133</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.2411795669758274</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>3.7717964424751576</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>1.5316871399459162</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.8391423441182011</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>16.097968463780255</t>
+          <t>16.1</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2.668741092087941</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>35.553409735498285</t>
+          <t>35.55</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>29.26723929467223</t>
+          <t>29.27</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1.2622081446423614</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>2.102250836106263</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>1.2479699910154989</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>1.4028810747937548</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>0.10107860658972272</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -1157,17 +1169,19 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>7</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>44.32928244267949</t>
+          <t>44.33</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>30.28725571624049</t>
+          <t>30.29</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1177,82 +1191,82 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>36.94158780499918</t>
+          <t>36.94</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.3489384104623645</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2.40383992412029</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>26.499964163507684</t>
+          <t>26.5</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>3.709050448297415</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>1.4673117159803697</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.8447529378930979</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1.1727673356866175</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2.6537754677010295</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>16.613036057384477</t>
+          <t>16.61</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>29.251810075112562</t>
+          <t>29.25</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1.2653538897431327</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>2.076627504834612</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>1.2562839735822051</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>28.02508009687335</t>
+          <t>28.03</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>0.048256818883109634</t>
+          <t>0.05</t>
         </is>
       </c>
     </row>
@@ -1260,97 +1274,99 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>8</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.937177744284886</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.259490876941736</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>30.189613879907768</t>
+          <t>30.19</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.91460340072213</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.4111307917634917</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2.539912385451225</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.1523151522008441</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>3.818635061798989</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1.5316871399459162</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>16.036707945643347</t>
+          <t>16.04</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1.2574319790131068</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2.7062294293459486</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>16.62586320358315</t>
+          <t>16.63</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>29.29563892069066</t>
+          <t>29.3</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>15.967795308550196</t>
+          <t>15.97</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>16.638814008998807</t>
+          <t>16.64</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>1.2562839735822051</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>16.345883440358058</t>
+          <t>16.35</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
@@ -1363,102 +1379,104 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>9</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4.438143698099449</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>30.116864798107436</t>
+          <t>30.12</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>30.193462297133262</t>
+          <t>30.19</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>60.3208278813791</t>
+          <t>60.32</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.3711469492165094</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2.490995893772647</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.1451063395448153</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>3.724886428769511</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>1.4837611979456613</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.8983874657549604</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1.2574319790131068</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2.668741092087941</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2.4153115311608193</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>29.31101297321182</t>
+          <t>29.31</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1.3019528775084732</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>33.91241464237299</t>
+          <t>33.91</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>27.55731036329828</t>
+          <t>27.56</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>16.363575288891578</t>
+          <t>16.36</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>0.048256818883109634</t>
+          <t>0.05</t>
         </is>
       </c>
     </row>
@@ -1466,22 +1484,24 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>10</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>44.35668849783357</t>
+          <t>44.36</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>30.04019684922699</t>
+          <t>30.04</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>30.09736963170092</t>
+          <t>30.1</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1491,77 +1511,77 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>26.499964163507684</t>
+          <t>26.5</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2.539912385451225</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1.0010930260109325</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>3.7717964424751576</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>1.435875295313043</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>15.985158781653993</t>
+          <t>15.99</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1.194661371853752</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2.7062294293459486</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2.5639670748234265</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>29.251810075112562</t>
+          <t>29.25</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>1.2653538897431327</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>33.91741070083414</t>
+          <t>33.92</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>6.168442630537116</t>
+          <t>6.17</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>1.4334702883835777</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>0.18733822675165807</t>
+          <t>0.19</t>
         </is>
       </c>
     </row>
@@ -1596,77 +1616,182 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>Pass</t>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>AVG</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>0.09</t>
         </is>
       </c>
     </row>
